--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -43,52 +43,58 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>pool</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>pay</t>
   </si>
   <si>
     <t>paint</t>
@@ -97,13 +103,10 @@
     <t>cheap</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>apart</t>
@@ -112,90 +115,87 @@
     <t>difficult</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>money</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -226,34 +226,34 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
+    <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>easy</t>
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>family</t>
@@ -689,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -739,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -789,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7746478873239436</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K6">
-        <v>0.7956989247311828</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.71875</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K7">
-        <v>0.734375</v>
+        <v>0.765625</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6571428571428571</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K8">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6545454545454545</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K9">
-        <v>0.5797101449275363</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6451612903225806</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K10">
-        <v>0.5437589670014347</v>
+        <v>0.5179340028694405</v>
       </c>
       <c r="L10">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="M10">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6283783783783784</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K11">
-        <v>0.4979253112033195</v>
+        <v>0.495850622406639</v>
       </c>
       <c r="L11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5825242718446602</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D12">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K12">
-        <v>0.4483606557377049</v>
+        <v>0.4532786885245902</v>
       </c>
       <c r="L12">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M12">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5789473684210527</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K13">
-        <v>0.3493975903614458</v>
+        <v>0.3433734939759036</v>
       </c>
       <c r="L13">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M13">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5630252100840336</v>
+        <v>0.5625</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K14">
-        <v>0.3394495412844037</v>
+        <v>0.3363914373088685</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5238095238095238</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5217391304347826</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C16">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1357,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K16">
-        <v>0.2962962962962963</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L16">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1389,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5208333333333334</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1407,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K17">
-        <v>0.21875</v>
+        <v>0.1953125</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1439,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.453125</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K18">
-        <v>0.2097902097902098</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>113</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1489,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4259259259259259</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1507,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K19">
-        <v>0.1847389558232932</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>203</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,13 +1539,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4126984126984127</v>
+        <v>0.390625</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1557,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K20">
-        <v>0.1825396825396825</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1589,13 +1589,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3933649289099526</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C21">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1607,31 +1607,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K21">
-        <v>0.1482456140350877</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L21">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>971</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1639,13 +1639,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3855421686746988</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1657,31 +1657,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K22">
-        <v>0.1451612903225807</v>
+        <v>0.1456140350877193</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>159</v>
+        <v>974</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1689,13 +1689,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3700787401574803</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1707,31 +1707,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K23">
-        <v>0.08051948051948052</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="L23">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1416</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1739,13 +1739,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3650793650793651</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1757,31 +1757,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K24">
-        <v>0.08021390374331551</v>
+        <v>0.08132726089785296</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>344</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1789,13 +1789,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3578947368421053</v>
+        <v>0.328125</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K25">
-        <v>0.06963788300835655</v>
+        <v>0.06128133704735376</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1839,13 +1839,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3483146067415731</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1857,31 +1857,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K26">
-        <v>0.05053191489361702</v>
+        <v>0.04</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1889,13 +1889,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3432835820895522</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1915,13 +1915,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3359375</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C28">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1941,13 +1941,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.297029702970297</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C29">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1967,13 +1967,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2346938775510204</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1993,13 +1993,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2164948453608248</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D31">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2019,13 +2019,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2033898305084746</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2045,13 +2045,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2</v>
+        <v>0.177536231884058</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>112</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2071,25 +2071,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1965811965811966</v>
+        <v>0.1649331352154532</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>94</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1809045226130653</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>163</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2123,7 +2123,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.177536231884058</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C36">
         <v>49</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2149,13 +2149,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1637931034482759</v>
+        <v>0.155</v>
       </c>
       <c r="C37">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>291</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2175,25 +2175,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1545319465081724</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C38">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>569</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2201,25 +2201,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1396825396825397</v>
+        <v>0.1465968586387434</v>
       </c>
       <c r="C39">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>271</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2227,13 +2227,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1360759493670886</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C40">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>273</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2253,13 +2253,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1256830601092896</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2279,25 +2279,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1255506607929515</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="C42">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>397</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2305,25 +2305,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1214953271028037</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>188</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2331,13 +2331,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1129032258064516</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2357,13 +2357,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1086142322097378</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>238</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2383,13 +2383,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0779510022271715</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>414</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2409,13 +2409,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07671232876712329</v>
+        <v>0.07126948775055679</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>337</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2435,25 +2435,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.06930693069306931</v>
+        <v>0.06280991735537191</v>
       </c>
       <c r="C48">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D48">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E48">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F48">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2461,25 +2461,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.06478873239436619</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>332</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2487,25 +2487,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05411764705882353</v>
+        <v>0.04187817258883249</v>
       </c>
       <c r="C50">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E50">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="F50">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>402</v>
+        <v>755</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2513,25 +2513,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04955527318932656</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="C51">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="F51">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>748</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
